--- a/biology/Botanique/Tavel_(AOC)/Tavel_(AOC).xlsx
+++ b/biology/Botanique/Tavel_(AOC)/Tavel_(AOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le tavel[2], est un vin d'appellation d'origine contrôlée produit sur les communes de Tavel et de Roquemaure, dans le Gard. Les vins de Tavel sont tous des rosés. C'est la seule appellation rhodanienne à ne faire que du vin rosé[3]. Le romancier Honoré de Balzac disait que c'était l'un des rares rosés que l'on puisse avantageusement laisser vieillir[4].
+Le tavel, est un vin d'appellation d'origine contrôlée produit sur les communes de Tavel et de Roquemaure, dans le Gard. Les vins de Tavel sont tous des rosés. C'est la seule appellation rhodanienne à ne faire que du vin rosé. Le romancier Honoré de Balzac disait que c'était l'un des rares rosés que l'on puisse avantageusement laisser vieillir.
 </t>
         </is>
       </c>
@@ -514,18 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Préhistoire et Antiquité
-Le site du village actuel fut occupé entre le VIe et le IIe millénaire avant notre ère par des chasseurs-cueilleurs installés sur les pentes du plateau de Vallongue. La colonisation romaine a permis de retrouver les vestiges d'une villa à proximité de la cave coopérative. Les archéologues ont mis au jour des pépins de raisins et des résidus de presse prouvant sa vocation viti-vinicole[5].
-Moyen Âge
-Au XIIe siècle, l’abbaye Saint-André de Villeneuve-lès-Avignon y possédait l’église paroissiale Saint-Pierre, et en percevait les revenus[6].
-Au milieu du XIVe siècle, le pape Innocent VI, qui avait une prédilection particulière pour les vins de la rive droite du Rhône, fit venir pour la table pontificale ceux du prieuré de Montézargues. Ce domaine viticole, qui existe toujours est situé au cœur de l'AOC Tavel[7].
-Période moderne
-En 1731, le sud de la viguerie d'Uzès, avec comme centre le futur canton de Roquemaure, prend le nom de la côte du Rhône. Les vins du cru, dont ceux de Tavel,  sont expédiés par le port de Roquemaure dans des tonneaux marqués au fer CDR[8].
-Un premier édit royal daté du 27 septembre 1729 tenta de donner une identité vinicole à cette petite région. Il fut insuffisant et modifié en 1731 en ces termes :
-« Tous les tonneaux de vin destinés pour la vente et transport du cru tant de Roquemaure que des lieux et paroisses voisines et contiguës : Tavel, Lirac, Saint-Laurent-des-Arbres, Saint-Geniès-de-Comolas, Orsan, Chusclan, Codolet et autres qui sont de qualités supérieures seront marqués sur l'un des fonds, étant pleins et non autrement, d'une marque de feu qui contiendra les trois lettres C D R signifiant Côte du Rhône avec le millésime de l'année[9]. »
-Période contemporaine
-En 1902, les producteurs de vins de Tavel formèrent un syndicat de propriétaires-viticulteurs. Son premier président fut Émile Tourtin, du prieuré de Montézargues, un ancien photographe reconverti depuis  peu dans la viticulture[10],[11],[12]. Pour faire connaître et apprécier leurs vins rosés, les membres participèrent à différentes expositions nationales et internationales dont celles de Lyon, Marseille, Strasbourg et Liège[13].
-En 1927, au cours du mois de novembre et à l'incitation du baron Pierre Le Roy de Boiseaumarié, Aimé Roudil, président du syndicat, et quarante producteurs de Tavel engagèrent une action en justice auprès du tribunal civil du Gard afin de définir l'aire de production[14]. Le jugement fut rendu le 28 janvier 1928 mais il fallut attendre le 17 mai 1936 pour la parution du décret au Journal officiel et sa confirmation par le décret du 19 novembre 1937[15]. Celui-ci a été modifié en 1968, 1987, 1988, 1990 et 1996.
+          <t>Préhistoire et Antiquité</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site du village actuel fut occupé entre le VIe et le IIe millénaire avant notre ère par des chasseurs-cueilleurs installés sur les pentes du plateau de Vallongue. La colonisation romaine a permis de retrouver les vestiges d'une villa à proximité de la cave coopérative. Les archéologues ont mis au jour des pépins de raisins et des résidus de presse prouvant sa vocation viti-vinicole.
 </t>
         </is>
       </c>
@@ -551,12 +558,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Étymologie</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>de Tavellis, 1294, Tavelli, 1384, Tavels, 1550.</t>
+          <t>Moyen Âge</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au XIIe siècle, l’abbaye Saint-André de Villeneuve-lès-Avignon y possédait l’église paroissiale Saint-Pierre, et en percevait les revenus.
+Au milieu du XIVe siècle, le pape Innocent VI, qui avait une prédilection particulière pour les vins de la rive droite du Rhône, fit venir pour la table pontificale ceux du prieuré de Montézargues. Ce domaine viticole, qui existe toujours est situé au cœur de l'AOC Tavel.
+</t>
         </is>
       </c>
     </row>
@@ -581,82 +596,552 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Période moderne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1731, le sud de la viguerie d'Uzès, avec comme centre le futur canton de Roquemaure, prend le nom de la côte du Rhône. Les vins du cru, dont ceux de Tavel,  sont expédiés par le port de Roquemaure dans des tonneaux marqués au fer CDR.
+Un premier édit royal daté du 27 septembre 1729 tenta de donner une identité vinicole à cette petite région. Il fut insuffisant et modifié en 1731 en ces termes :
+« Tous les tonneaux de vin destinés pour la vente et transport du cru tant de Roquemaure que des lieux et paroisses voisines et contiguës : Tavel, Lirac, Saint-Laurent-des-Arbres, Saint-Geniès-de-Comolas, Orsan, Chusclan, Codolet et autres qui sont de qualités supérieures seront marqués sur l'un des fonds, étant pleins et non autrement, d'une marque de feu qui contiendra les trois lettres C D R signifiant Côte du Rhône avec le millésime de l'année. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1902, les producteurs de vins de Tavel formèrent un syndicat de propriétaires-viticulteurs. Son premier président fut Émile Tourtin, du prieuré de Montézargues, un ancien photographe reconverti depuis  peu dans la viticulture. Pour faire connaître et apprécier leurs vins rosés, les membres participèrent à différentes expositions nationales et internationales dont celles de Lyon, Marseille, Strasbourg et Liège.
+En 1927, au cours du mois de novembre et à l'incitation du baron Pierre Le Roy de Boiseaumarié, Aimé Roudil, président du syndicat, et quarante producteurs de Tavel engagèrent une action en justice auprès du tribunal civil du Gard afin de définir l'aire de production. Le jugement fut rendu le 28 janvier 1928 mais il fallut attendre le 17 mai 1936 pour la parution du décret au Journal officiel et sa confirmation par le décret du 19 novembre 1937. Celui-ci a été modifié en 1968, 1987, 1988, 1990 et 1996.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>de Tavellis, 1294, Tavelli, 1384, Tavels, 1550.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Orographie
-L'orographie de Tavel est tributaire d'une partie du massif des garrigues du Gard. Celui-ci s'étend sur 20 kilomètres entre Uzès et Tavel pour une dizaine de kilomètres de largeur. Son altitude varie autour de 250 mètres d'altitude, dominant la plaine de 150 mètres[16].
-Ce massif date de 110 millions d'années avant notre ère. Il s'est formé à la fin de l'ère secondaire, au cours de la période du Crétacé. La zone était couverte par une mer chaude où se forma une immense barrière de corail qui forme aujourd'hui les collines calcaires de Tavel et Lirac. La pierre de Tavel est extraite de ce calcaire dur contenant des fossiles d'ammonites[17].
-La carrière d'extraction se situe sur la route de Lirac dans une dépression calcaire dominée au nord par le plateau calcaire de la Montagne et au sud par le plateau calcaire de la Forêt de Tavel-Rochefort[18].
-Géologie
-Le terroir viticole de Tavel est composé de quatre zones distinctes. Une zone alluvionnaire générée par le Rhône qui se retrouve sur les coteaux des AOC Lirac et Tavel sous la forme d'alluvions anciennes recouvrant les basses et moyennes terrasses. Une zone sableuse datant du pliocène moyen, dont les sables se retrouvent entre Tavel et Roquemaure. Une zone de calcaires marneux déposés au cours du barrémien inférieur qui forment le massif de Villeneuve les Avignon, Les Angles et Tavel. Enfin une zone de calcaire du Barrémien supérieur à faciès urgonien qui compose le massif de Tavel-Rochefort du Gard. Ce sont essentiellement des calcaires cristallins (argileux et récifaux) et des calcaires graveleux (calcaires détritiques)[19].
-Climatologie
-Le climat de ce terroir est soumis à un rythme à quatre temps : deux saisons sèches (une brève en hiver, une très longue et accentuée en été), deux saisons pluvieuses, en automne (pluies abondantes et brutales) et au printemps. Sa spécificité est son climat méditerranéen qui constitue un atout exceptionnel :
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Orographie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'orographie de Tavel est tributaire d'une partie du massif des garrigues du Gard. Celui-ci s'étend sur 20 kilomètres entre Uzès et Tavel pour une dizaine de kilomètres de largeur. Son altitude varie autour de 250 mètres d'altitude, dominant la plaine de 150 mètres.
+Ce massif date de 110 millions d'années avant notre ère. Il s'est formé à la fin de l'ère secondaire, au cours de la période du Crétacé. La zone était couverte par une mer chaude où se forma une immense barrière de corail qui forme aujourd'hui les collines calcaires de Tavel et Lirac. La pierre de Tavel est extraite de ce calcaire dur contenant des fossiles d'ammonites.
+La carrière d'extraction se situe sur la route de Lirac dans une dépression calcaire dominée au nord par le plateau calcaire de la Montagne et au sud par le plateau calcaire de la Forêt de Tavel-Rochefort.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terroir viticole de Tavel est composé de quatre zones distinctes. Une zone alluvionnaire générée par le Rhône qui se retrouve sur les coteaux des AOC Lirac et Tavel sous la forme d'alluvions anciennes recouvrant les basses et moyennes terrasses. Une zone sableuse datant du pliocène moyen, dont les sables se retrouvent entre Tavel et Roquemaure. Une zone de calcaires marneux déposés au cours du barrémien inférieur qui forment le massif de Villeneuve les Avignon, Les Angles et Tavel. Enfin une zone de calcaire du Barrémien supérieur à faciès urgonien qui compose le massif de Tavel-Rochefort du Gard. Ce sont essentiellement des calcaires cristallins (argileux et récifaux) et des calcaires graveleux (calcaires détritiques).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le climat de ce terroir est soumis à un rythme à quatre temps : deux saisons sèches (une brève en hiver, une très longue et accentuée en été), deux saisons pluvieuses, en automne (pluies abondantes et brutales) et au printemps. Sa spécificité est son climat méditerranéen qui constitue un atout exceptionnel :
 Le mistral assainit le vignoble
 La saisonnalité des pluies est très marquée
 Les températures sont très chaudes pendant l'été.
-Les étés sont chauds et secs, liés à la remontée des anticyclones subtropicaux, entrecoupés d’épisodes orageux parfois violents. Les hivers sont doux. Les précipitations sont peu fréquentes et la neige rare[20].
+Les étés sont chauds et secs, liés à la remontée des anticyclones subtropicaux, entrecoupés d’épisodes orageux parfois violents. Les hivers sont doux. Les précipitations sont peu fréquentes et la neige rare.
 Source : Données climatologiques d'Avignon 2000-2007
 Selon Météo-France, le nombre par an de jours de pluies supérieures à 2,5 litres par mètre carré est de 45 et la quantité d'eau, pluie et neige confondues, est de 660 litres par mètre carré. Les températures moyennes oscillent entre 0 et 30° selon la saison. Le record de température depuis l'existence de la station de l'INRA est de 40,5 °C lors de la canicule européenne de 2003 le 5 août (et 39,8 °C le 18 août 2009) et −12,8 °C le 5 janvier 1985. Les relevés météorologiques ont lieu à l'Agroparc d'Avignon.
 Le mistral
-Le vent principal est le mistral, dont la vitesse peut aller au-delà des 110 km/h. Il souffle entre 120 et 160 jours par an, avec une vitesse de 90 km/h par rafale en moyenne[21]. Le tableau suivant indique les différentes vitesse du mistral enregistrées par les stations d'Orange et Carpentras-Serres dans le sud de la vallée du Rhône et à sa fréquence au cours de l'année 2006. La normale correspond à la moyenne des 53 dernières années pour les relevés météorologiques d'Orange et à celle des 42 dernières pour Carpentras[22].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Tavel_(AOC)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tavel_(AOC)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+Le vent principal est le mistral, dont la vitesse peut aller au-delà des 110 km/h. Il souffle entre 120 et 160 jours par an, avec une vitesse de 90 km/h par rafale en moyenne. Le tableau suivant indique les différentes vitesse du mistral enregistrées par les stations d'Orange et Carpentras-Serres dans le sud de la vallée du Rhône et à sa fréquence au cours de l'année 2006. La normale correspond à la moyenne des 53 dernières années pour les relevés météorologiques d'Orange et à celle des 42 dernières pour Carpentras.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présentation
-Cette appellation se trouve sur la commune de Tavel, dans le Gard. Un seul domaine, sur la commune de Roquemaure, y est rattaché.
-Encépagement
-Les cépages admis dans l'AOC sont : grenache N, grenache B, cinsault N, syrah N, clairette B et clairette rose Rs, piquepoul blanc B, calitor N, bourboulenc B, mourvèdre et carignan N.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette appellation se trouve sur la commune de Tavel, dans le Gard. Un seul domaine, sur la commune de Roquemaure, y est rattaché.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages admis dans l'AOC sont : grenache N, grenache B, cinsault N, syrah N, clairette B et clairette rose Rs, piquepoul blanc B, calitor N, bourboulenc B, mourvèdre et carignan N.
 			Carignan à Tavel
 			Vendange de grenache
 			Vendange de cépages blancs
 			Vendange de cinsault
 			Syrah à Tavel
-Terroir et vin
-Dans ce terroir composé d'argile rouge, de galets quartziques, de sables fluviatiques, de galets encroûtés, de cailloutis calcaires et de marnes grises, les vins acquièrent une personnalité différente tout en gardant une typicité liée aux cépages et au climat. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Terroir et vin</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans ce terroir composé d'argile rouge, de galets quartziques, de sables fluviatiques, de galets encroûtés, de cailloutis calcaires et de marnes grises, les vins acquièrent une personnalité différente tout en gardant une typicité liée aux cépages et au climat. 
 La robe rosée de ces vins peut se décliner du saumoné au rose soutenu des akènes de cynorrhodon. Leur nez, aux nuances complexes de fruits rouges, évolue vers des notes moelleuses de fruits à noyau et d’amandes, tandis que leur bouche ample et d’une belle rondeur révèle une grande puissance aromatique soutenue par des touches épicées.
-Méthodes culturales
-Pour respecter leur cahier des charges, les producteurs de l'AOC doivent avoir une densité de plantation de 4 000 pieds par hectare (3 500 pour la taille en gobelet traditionnel), avec un espacement de 2,25 mètres au maximum entre les rangées de vigne. La taille de la vigne doit être courte en gobelet ou cordon afin que le rendement soit de 46 hectolitres à l'hectare. Il ne devra pas dépasser 50 hL/ha.
-Vinification et élevage
-Les vins sont uniquement vinifiés en rosé. Cette vinification est majoritairement réalisée par saignée, le jus de goutte s'écoulant sous le poids de la vendange, elle se poursuit par un assemblage dans lequel le grenache noir reste majoritaire. Le cinsault apporte ici toute son expression ainsi que les autres cépages dont la syrah et le mourvèdre[23].
-Structure des exploitations
-Dans les années 1930, hors quatre importantes propriétés portant le nom de châteaux, tous les autres vignobles de la commune étaient de faible surface et morcelés. Les 132 déclarations de récoltes de 1936, illustrent cet état de fait[24] :
-Type de vins et gastronomie
-Un certain nombre de chefs ont popularisé des mets qu'accompagnent parfaitement le tavel, dont Richard Daulay, de Bordeaux, avec sa gigolette de volaille façon poule au pot, royale de topinambour et truffe, ou son délice de fromage blanc et pamplemousse rose, feuille de chocolat craquant ; Guy Julien, du restaurant la Beaugravière à Mondragon avec son velouté de potiron et truffe ; Alban Mestre, de Genève, avec son tartare de féra du lac Léman aux agrumes et ciboulette sur une gelée de tavel accompagné d'un chutney de groseilles tandis que l'Auberge de Tavel propose un pigeon en jus de vin de Tavel et petits pois au pamplemousse[25].
-À ces recettes de grands chefs, Sylvie Trubert, du caveau Saint-Vincent, ajoute quelques idées d'accompagnement au quotidien dont les toasts de tapenade, les moules à la sétoise, le jambalaya aux crevettes, la soupe au pistou, l'aigo boulido, la salade niçoise, les tielles sétoises, l'anchoïade, le crespeu, la brandade de morue, l'aïoli, la bourride, la bouillabaisse, la daube, l'osso bucco, les pieds paquets, les sushis, les makis, les nems, les tians, les farcis, la ratatouille, la bohémienne, les fromages de chèvre, le clafoutis, la pompe de Noël[26].
-Millésimes (de 1920 à 2009)
-Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Méthodes culturales</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour respecter leur cahier des charges, les producteurs de l'AOC doivent avoir une densité de plantation de 4 000 pieds par hectare (3 500 pour la taille en gobelet traditionnel), avec un espacement de 2,25 mètres au maximum entre les rangées de vigne. La taille de la vigne doit être courte en gobelet ou cordon afin que le rendement soit de 46 hectolitres à l'hectare. Il ne devra pas dépasser 50 hL/ha.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Vinification et élevage</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins sont uniquement vinifiés en rosé. Cette vinification est majoritairement réalisée par saignée, le jus de goutte s'écoulant sous le poids de la vendange, elle se poursuit par un assemblage dans lequel le grenache noir reste majoritaire. Le cinsault apporte ici toute son expression ainsi que les autres cépages dont la syrah et le mourvèdre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Structure des exploitations</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les années 1930, hors quatre importantes propriétés portant le nom de châteaux, tous les autres vignobles de la commune étaient de faible surface et morcelés. Les 132 déclarations de récoltes de 1936, illustrent cet état de fait :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Type de vins et gastronomie</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un certain nombre de chefs ont popularisé des mets qu'accompagnent parfaitement le tavel, dont Richard Daulay, de Bordeaux, avec sa gigolette de volaille façon poule au pot, royale de topinambour et truffe, ou son délice de fromage blanc et pamplemousse rose, feuille de chocolat craquant ; Guy Julien, du restaurant la Beaugravière à Mondragon avec son velouté de potiron et truffe ; Alban Mestre, de Genève, avec son tartare de féra du lac Léman aux agrumes et ciboulette sur une gelée de tavel accompagné d'un chutney de groseilles tandis que l'Auberge de Tavel propose un pigeon en jus de vin de Tavel et petits pois au pamplemousse.
+À ces recettes de grands chefs, Sylvie Trubert, du caveau Saint-Vincent, ajoute quelques idées d'accompagnement au quotidien dont les toasts de tapenade, les moules à la sétoise, le jambalaya aux crevettes, la soupe au pistou, l'aigo boulido, la salade niçoise, les tielles sétoises, l'anchoïade, le crespeu, la brandade de morue, l'aïoli, la bourride, la bouillabaisse, la daube, l'osso bucco, les pieds paquets, les sushis, les makis, les nems, les tians, les farcis, la ratatouille, la bohémienne, les fromages de chèvre, le clafoutis, la pompe de Noël.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Millésimes (de 1920 à 2009)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
 Soit sur 90 ans, 24 années exceptionnelles, 26 grandes années, 16 bonnes années, 22 années moyennes et 2 années médiocres.
-Liste des producteurs (par ordre alphabétique)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Liste des producteurs (par ordre alphabétique)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Château d'Aquéria
 Château Correnson
 Domaine de Manissy
@@ -691,45 +1176,117 @@
 			Domaines Roc de l'Olivet et Moulin-la-Viguerie.
 			Domaines Saint-Ferréol.
 			Prieuré de Montézargues.
-Caveau Saint-Vincent
-Dans le village, le Caveau Saint-Vincent a été le premier caveau généraliste créé en Côtes du Rhône gardoises en 1987. Sa responsable, Sylvie Tribert, y a regroupé la production des vingt-neuf caves vigneronnes de Tavel et commercialise une soixantaine de vins différents de la gamme des AOC de la vallée du Rhône méridionale dont des lirac, châteauneuf-du-pape, gigondas, vacqueyras, côtes-du-rhône, muscat de Beaumes-de-Venise, cartagène et marc de Tavel. Le caveau organise des dégustations pour groupes et des visites du vignoble[27]. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Caveau Saint-Vincent</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le village, le Caveau Saint-Vincent a été le premier caveau généraliste créé en Côtes du Rhône gardoises en 1987. Sa responsable, Sylvie Tribert, y a regroupé la production des vingt-neuf caves vigneronnes de Tavel et commercialise une soixantaine de vins différents de la gamme des AOC de la vallée du Rhône méridionale dont des lirac, châteauneuf-du-pape, gigondas, vacqueyras, côtes-du-rhône, muscat de Beaumes-de-Venise, cartagène et marc de Tavel. Le caveau organise des dégustations pour groupes et des visites du vignoble. 
 Leçon de dégustation au caveau Saint-Vincent par Sylvie Tribert
-Caveaux de dégustation
-L'œnotourisme recouvre de nombreuses activités de découverte : dégustation des vins, visite de caves, rencontre avec les propriétaires, découverte des métiers et techniques de la vigne, connaissance des cépages, des terroirs, des appellations, de la gastronomie locale. À cet aspect festif s'ajoutent les activités sportives et de loisirs : promenades et randonnées dans les vignobles.
-Pour les touristes, une charte de qualité des caveaux de dégustation a été mise en place dans la vallée du Rhône pour l'ensemble des vignobles par Inter Rhône[28]. Elle propose trois catégories différentes d'accueil en fonction des prestations offertes par les caves[29].
-La première - dite accueil de qualité - définit les conditions de cet accueil. Un panneau à l'entrée doit signaler que celui-ci est adhérent à la charte. Ce qui exige que ses abords soient en parfait état et entretenus et qu'il dispose d'un parking proche. L'intérieur du caveau doit disposer d'un sanitaire et d'un point d'eau, les visiteurs peuvent s'asseoir et ils ont de plus l'assurance que locaux et ensemble du matériel utilisé sont d'une propreté irréprochable (sols, table de dégustation, crachoirs, verres)[28].
-L'achat de vin à l'issue de la dégustation n'est jamais obligatoire. Celle-ci s'est faite dans des verres de qualité (minimum INAO). Les vins ont été servis à température idéale et les enfants se sont vu proposer des jus de fruits ou des jus de raisin. Outre l'affichage de ses horaires et des permanences, le caveau dispose de fiches techniques sur les vins, affiche les prix et offre des brochures touristiques sur l'appellation[28].
-La seconde - dite accueil de service - précise que le caveau est ouvert cinq jours sur sept toute l'année et six jours sur sept de juin à septembre. La dégustation se fait dans des verres cristallins voire en cristal. Accessible aux personnes à mobilité réduite, il est chauffé l'hiver et frais l'été, de plus il dispose d'un éclairage satisfaisant (néons interdits). Sa décoration est en relation avec la vigne et le vin, une carte de l'appellation est affichée. Il dispose d'un site internet et fournit à sa clientèle des informations sur la gastronomie et les produits agroalimentaires locaux, les lieux touristiques et les autres caveaux adhérant à la charte. Des plus les fiches techniques sur les vins proposés sont disponibles en anglais[30].
-La troisième - dite accueil d'excellence - propose d'autres services dont la mise en relation avec d'autres caveaux, la réservation de restaurants ou d'hébergements. Le caveau assure l'expédition en France pour un minimum de vingt-quatre bouteilles. Il dispose d'un site Internet en version anglaise et le personnel d'accueil parle au moins l'anglais[31].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Tavel_(AOC)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tavel_(AOC)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Caveaux de dégustation</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'œnotourisme recouvre de nombreuses activités de découverte : dégustation des vins, visite de caves, rencontre avec les propriétaires, découverte des métiers et techniques de la vigne, connaissance des cépages, des terroirs, des appellations, de la gastronomie locale. À cet aspect festif s'ajoutent les activités sportives et de loisirs : promenades et randonnées dans les vignobles.
+Pour les touristes, une charte de qualité des caveaux de dégustation a été mise en place dans la vallée du Rhône pour l'ensemble des vignobles par Inter Rhône. Elle propose trois catégories différentes d'accueil en fonction des prestations offertes par les caves.
+La première - dite accueil de qualité - définit les conditions de cet accueil. Un panneau à l'entrée doit signaler que celui-ci est adhérent à la charte. Ce qui exige que ses abords soient en parfait état et entretenus et qu'il dispose d'un parking proche. L'intérieur du caveau doit disposer d'un sanitaire et d'un point d'eau, les visiteurs peuvent s'asseoir et ils ont de plus l'assurance que locaux et ensemble du matériel utilisé sont d'une propreté irréprochable (sols, table de dégustation, crachoirs, verres).
+L'achat de vin à l'issue de la dégustation n'est jamais obligatoire. Celle-ci s'est faite dans des verres de qualité (minimum INAO). Les vins ont été servis à température idéale et les enfants se sont vu proposer des jus de fruits ou des jus de raisin. Outre l'affichage de ses horaires et des permanences, le caveau dispose de fiches techniques sur les vins, affiche les prix et offre des brochures touristiques sur l'appellation.
+La seconde - dite accueil de service - précise que le caveau est ouvert cinq jours sur sept toute l'année et six jours sur sept de juin à septembre. La dégustation se fait dans des verres cristallins voire en cristal. Accessible aux personnes à mobilité réduite, il est chauffé l'hiver et frais l'été, de plus il dispose d'un éclairage satisfaisant (néons interdits). Sa décoration est en relation avec la vigne et le vin, une carte de l'appellation est affichée. Il dispose d'un site internet et fournit à sa clientèle des informations sur la gastronomie et les produits agroalimentaires locaux, les lieux touristiques et les autres caveaux adhérant à la charte. Des plus les fiches techniques sur les vins proposés sont disponibles en anglais.
+La troisième - dite accueil d'excellence - propose d'autres services dont la mise en relation avec d'autres caveaux, la réservation de restaurants ou d'hébergements. Le caveau assure l'expédition en France pour un minimum de vingt-quatre bouteilles. Il dispose d'un site Internet en version anglaise et le personnel d'accueil parle au moins l'anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Commercialisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">L'AOC Tavel est commercialisée à 68 % sur le territoire français et exporté à 38 %. 
 Pour l'exportation les principaux pays sont :
@@ -737,62 +1294,66 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Tavel_(AOC)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tavel_(AOC)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>La rose de Tavel</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une rose a été baptisée rose de Tavel[32]. Elle est devenue la « véritable ambassadrice du premier rosé de France. Cette rose sert en effet d'outil de communication pour les vins de l'appellation et pour la commune de Tavel ».
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Tavel_(AOC)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tavel_(AOC)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une rose a été baptisée rose de Tavel. Elle est devenue la « véritable ambassadrice du premier rosé de France. Cette rose sert en effet d'outil de communication pour les vins de l'appellation et pour la commune de Tavel ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tavel_(AOC)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Commanderie de Tavel</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve">Créée le 21 mai 1968, cette association loi de 1901, la Commanderie de Tavel, maintient son but' "défendre la cause du vin de promouvoir sa consommation dans les conditions idéales de dégustation et d'appréciation et plus particulièrement en ce qui concerne les crus des vignobles de TAVEL". Avec toute sa passion, elle porte haut la bannière du Premier Rosé de France, elle contribue au rayonnement de son appellation AOP à travers le monde.
 Elle se compose de Chevaliers qui tous doivent être dégustateur diplômé. La confrérie se compose en 2014 de quarante-cinq chevaliers. Dans deux précieux livres d'or, sont marquées à jamais, les signatures d'illustres personnalités  et de deux mille membres d'honneurs en France qu'à l'étranger (Belgique, Suède, États-Unis). L'obtention du titre de chevalier n'est en rien honorifique puisque chaque impétrant doit justifier de six semaines de stage à l'école de dégustation de Tavel et prêter serment à la cause du Tavel et s'engager à porter haut et fort la couleur unique de ce vin Rosé.
